--- a/config_p3388/moderate_rfi.xlsx
+++ b/config_p3388/moderate_rfi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\meas\p3388_general_rfi_tv\config_p3388\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92224061-3CD6-4862-98B1-3739877FEC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B8CC8C-5C2D-418B-9F9A-AD319142EF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19950" yWindow="-2325" windowWidth="17085" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="1875" windowWidth="17085" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -153,18 +153,6 @@
   </si>
   <si>
     <t>J6</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -614,7 +602,7 @@
       </c>
       <c r="C3" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>905</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>0.98</v>
@@ -635,22 +623,22 @@
       </c>
       <c r="I3" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2">
         <f ca="1">RAND()*3</f>
-        <v>2.6542520994308938</v>
+        <v>1.0026748151938976</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="M3" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.86132205000335993</v>
+        <v>1.8345806033170766</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -667,8 +655,8 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C42" ca="1" si="2">RANDBETWEEN(1,1024)</f>
-        <v>297</v>
+        <f t="shared" ref="C4:C32" ca="1" si="2">RANDBETWEEN(1,1024)</f>
+        <v>845</v>
       </c>
       <c r="D4" s="2">
         <f>D3</f>
@@ -690,23 +678,23 @@
         <v>11</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I42" ca="1" si="5">RANDBETWEEN(1,30)</f>
-        <v>26</v>
+        <f t="shared" ref="I4:I32" ca="1" si="5">RANDBETWEEN(1,30)</f>
+        <v>24</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J42" ca="1" si="6">RAND()*3</f>
-        <v>2.072027052407821</v>
+        <f t="shared" ref="J4:J32" ca="1" si="6">RAND()*3</f>
+        <v>1.1357263261112118</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L42" ca="1" si="7">RANDBETWEEN(-10,10)</f>
-        <v>-7</v>
+        <f t="shared" ref="L4:L32" ca="1" si="7">RANDBETWEEN(-10,10)</f>
+        <v>-3</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M42" ca="1" si="8">RAND()*3</f>
-        <v>1.3301624602119615</v>
+        <f t="shared" ref="M4:M32" ca="1" si="8">RAND()*3</f>
+        <v>2.5554079544771948</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -724,7 +712,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>759</v>
+        <v>230</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5:D12" si="9">D4</f>
@@ -747,22 +735,22 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7620882626695582</v>
+        <v>0.14386688367257416</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.75468966071938381</v>
+        <v>2.9094469503227067</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -780,7 +768,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>452</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="9"/>
@@ -803,22 +791,22 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1571278738481641</v>
+        <v>2.0885889847117021</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35252680576621687</v>
+        <v>0.43962077446429404</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -836,7 +824,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="9"/>
@@ -859,22 +847,22 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69407898545177726</v>
+        <v>2.5204116423065228</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68251754905672324</v>
+        <v>0.58264806521327095</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -892,7 +880,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>284</v>
+        <v>563</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="9"/>
@@ -915,22 +903,22 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65442056847504104</v>
+        <v>2.5850986146228143</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1161870636858304</v>
+        <v>1.1629433360840771</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -948,7 +936,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>685</v>
+        <v>734</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="9"/>
@@ -971,22 +959,22 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76600561977376924</v>
+        <v>2.8161947644338596</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2593140501421722</v>
+        <v>2.4386888334388117</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -1004,7 +992,7 @@
       </c>
       <c r="C10" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>528</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="9"/>
@@ -1027,22 +1015,22 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2882739847228351</v>
+        <v>1.7408022203474853</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3741744752112028</v>
+        <v>1.9925373755542166</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -1060,7 +1048,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>759</v>
+        <v>985</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="9"/>
@@ -1083,22 +1071,22 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3354382104183671</v>
+        <v>1.5046505754079162</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2232965248758463</v>
+        <v>0.32337106624788281</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -1116,7 +1104,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>554</v>
+        <v>678</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="9"/>
@@ -1139,22 +1127,22 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4763403530004502</v>
+        <v>0.99529714089466947</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2402194652492877</v>
+        <v>1.4636445759907493</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -1172,7 +1160,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13:D20" si="11">D12</f>
@@ -1195,22 +1183,22 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.651914144946971</v>
+        <v>0.45002222949175075</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5928711011024763</v>
+        <v>1.1183895477816996</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -1228,7 +1216,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>751</v>
+        <v>915</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="11"/>
@@ -1251,11 +1239,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8594250045973708</v>
+        <v>0.82642222923108177</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>11</v>
@@ -1266,7 +1254,7 @@
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8378827102354176</v>
+        <v>0.60393631785791246</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -1284,7 +1272,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>993</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="11"/>
@@ -1307,22 +1295,22 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97880446888214412</v>
+        <v>1.8423447732252858</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4659682060353383</v>
+        <v>0.99476322268527173</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -1340,7 +1328,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>568</v>
+        <v>974</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="11"/>
@@ -1363,22 +1351,22 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3375260230783232</v>
+        <v>2.7175521239130158</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.56789363917057589</v>
+        <v>2.7080153315297317</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -1396,7 +1384,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>447</v>
+        <v>376</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="11"/>
@@ -1419,11 +1407,11 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83568108558944609</v>
+        <v>1.526518139261799</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>11</v>
@@ -1434,7 +1422,7 @@
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7481239176143268</v>
+        <v>0.82786328848451451</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -1452,7 +1440,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>293</v>
+        <v>378</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="11"/>
@@ -1475,22 +1463,22 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1592448709017291</v>
+        <v>2.477636755908291</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8926546970869205</v>
+        <v>1.8849613769561353</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -1508,7 +1496,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>462</v>
+        <v>245</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="11"/>
@@ -1531,22 +1519,22 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3739330758239552</v>
+        <v>4.2413261241458944E-2</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5177072892772072</v>
+        <v>0.91826177921776597</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -1564,7 +1552,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>864</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="11"/>
@@ -1587,22 +1575,22 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8531365003198479</v>
+        <v>2.7918877442650492</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3306957706679352</v>
+        <v>2.3694143785853234</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -1620,10 +1608,10 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1000</v>
+        <v>297</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21:D42" si="15">D20</f>
+        <f t="shared" ref="D21:D32" si="15">D20</f>
         <v>0.98</v>
       </c>
       <c r="E21" s="2">
@@ -1635,7 +1623,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" ref="G21:G42" si="18">G20</f>
+        <f t="shared" ref="G21:G32" si="18">G20</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1643,22 +1631,22 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4407188659763968</v>
+        <v>1.4268448286472779</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.53938064140351971</v>
+        <v>1.8433938038798052</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -1676,7 +1664,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>921</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="15"/>
@@ -1699,22 +1687,22 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8895270487578926</v>
+        <v>2.7217764722689179</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7882748384603873</v>
+        <v>2.0061994168905382</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -1732,18 +1720,18 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1001</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="15"/>
         <v>0.98</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E42" si="19">1-D23</f>
+        <f t="shared" ref="E23:E32" si="19">1-D23</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" ref="F23:F42" si="20">1-G23</f>
+        <f t="shared" ref="F23:F32" si="20">1-G23</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="G23" s="2">
@@ -1755,22 +1743,22 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4197329413399222</v>
+        <v>5.1396873931444653E-2</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0433353327705026</v>
+        <v>0.39017802577701111</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -1788,7 +1776,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>788</v>
+        <v>217</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="15"/>
@@ -1811,22 +1799,22 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0349033635417151</v>
+        <v>2.5094980286159307</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>7.9631554328692178E-2</v>
+        <v>0.30770907739221398</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -1844,7 +1832,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>499</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="15"/>
@@ -1867,22 +1855,22 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8669376659071657</v>
+        <v>2.022919171414757</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3395834138024298</v>
+        <v>1.6718278768999568</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -1900,7 +1888,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>670</v>
+        <v>945</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="15"/>
@@ -1927,18 +1915,18 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66323652158025692</v>
+        <v>0.47679940562479006</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1492087050449602</v>
+        <v>1.4540396190936562</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
@@ -1956,7 +1944,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>410</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="15"/>
@@ -1979,11 +1967,11 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8895354593724034</v>
+        <v>0.82592261475867434</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>11</v>
@@ -1994,7 +1982,7 @@
       </c>
       <c r="M27" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.36748277290575271</v>
+        <v>1.6545010431456435</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -2012,7 +2000,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>955</v>
+        <v>653</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="15"/>
@@ -2035,22 +2023,22 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0598154591877498</v>
+        <v>2.4631315225197832</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9523376930440342</v>
+        <v>0.22637060594702041</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -2068,7 +2056,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>814</v>
+        <v>213</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="15"/>
@@ -2091,22 +2079,22 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82533355465273006</v>
+        <v>1.8708981672341363</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.74560266193470515</v>
+        <v>1.2617216819275412</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -2124,7 +2112,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>916</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="15"/>
@@ -2147,22 +2135,22 @@
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41711588906380803</v>
+        <v>2.9545675301392844</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.50677700256638603</v>
+        <v>0.89213126178544599</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
@@ -2180,7 +2168,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>675</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="15"/>
@@ -2203,22 +2191,22 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9155043352341861</v>
+        <v>1.4804712995293714</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1297723028388069</v>
+        <v>2.1000339624513629</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
@@ -2236,7 +2224,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>311</v>
+        <v>495</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="15"/>
@@ -2259,22 +2247,22 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.528163277549222</v>
+        <v>2.9596563190468208</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.69735706004861786</v>
+        <v>0.87623398086873194</v>
       </c>
       <c r="N32" s="1">
         <v>0</v>
